--- a/历史/大事年表.xlsx
+++ b/历史/大事年表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wpf_custom\workspace\github\my-note-2\历史\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB378F98-E534-42DB-86BD-0EC5789DFE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A173C77C-88FE-4B3D-8E16-2CFA1432506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1590" windowWidth="22605" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="645" windowWidth="22605" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="151">
   <si>
     <t>前 3000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -697,69 +697,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>法兰克人克洛维一世统一部落，建立法兰克王国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东法兰克王国演变为神圣罗马帝国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法兰西皇帝拿破仑赢得第三次反法同盟战争，迫使弗朗茨二世放弃神圣罗马皇帝头衔，神圣罗马帝国灭亡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛罗伦萨共和国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄牙帝国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波斯帝国（阿契美尼德王朝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛罗伦萨脱离托斯卡纳侯国领，获得自治权，成立共和国。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马教皇克勉七世任命亚历山德罗·德·美第奇为佛罗伦萨世袭公爵，共和国成为佛罗伦萨公国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威尼斯共和国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东罗马帝国承认威尼斯自治权，威尼斯共和国建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿破仑法军入侵威尼斯，威尼斯共和国灭亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法兰西第一帝国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥斯曼帝国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥斯曼一世率部落蚕食拜占庭，建立奥斯曼帝国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏丹制被废除，奥斯曼帝国灭亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>罗马共和国
 罗马帝国
-法兰克王国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法兰克人克洛维一世统一部落，建立法兰克王国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东法兰克王国演变为神圣罗马帝国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法兰西皇帝拿破仑赢得第三次反法同盟战争，迫使弗朗茨二世放弃神圣罗马皇帝头衔，神圣罗马帝国灭亡。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛罗伦萨共和国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葡萄牙帝国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波斯帝国（阿契美尼德王朝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛罗伦萨脱离托斯卡纳侯国领，获得自治权，成立共和国。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗马教皇克勉七世任命亚历山德罗·德·美第奇为佛罗伦萨世袭公爵，共和国成为佛罗伦萨公国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>威尼斯共和国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东罗马帝国承认威尼斯自治权，威尼斯共和国建立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿破仑法军入侵威尼斯，威尼斯共和国灭亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法兰西第一帝国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥斯曼帝国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥斯曼一世率部落蚕食拜占庭，建立奥斯曼帝国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏丹制被废除，奥斯曼帝国灭亡</t>
+法兰克王国
+法兰西王国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法兰西公爵雨果卡佩被推举为法兰克人的国王，建立卡佩王朝，视为法兰西王国的开端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法兰西国王路易十六被处死，法兰西王国灭亡。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,7 +840,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -952,6 +961,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -965,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1048,15 +1063,12 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,13 +1355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q47" sqref="Q47"/>
+      <selection pane="bottomRight" activeCell="I72" sqref="I72:I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1363,11 +1375,11 @@
     <col min="7" max="7" width="26.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="29.875" style="28" customWidth="1"/>
+    <col min="10" max="11" width="29.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="28.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.875" style="28" customWidth="1"/>
-    <col min="15" max="15" width="23.25" style="28" customWidth="1"/>
+    <col min="14" max="14" width="20.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="27.125" style="1" customWidth="1"/>
     <col min="18" max="18" width="21.75" style="1" customWidth="1"/>
@@ -1395,34 +1407,34 @@
         <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>142</v>
+      <c r="J1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>146</v>
+      <c r="N1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>82</v>
@@ -1547,7 +1559,6 @@
       <c r="E14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="28"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -1557,7 +1568,6 @@
       <c r="E15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="28"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
@@ -1567,7 +1577,6 @@
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="28"/>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -1575,7 +1584,6 @@
         <v>33</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="28"/>
       <c r="H17" s="14" t="s">
         <v>34</v>
       </c>
@@ -1585,7 +1593,6 @@
         <v>35</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="28"/>
       <c r="H18" s="15" t="s">
         <v>36</v>
       </c>
@@ -1597,7 +1604,6 @@
       <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="28"/>
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1607,7 +1613,6 @@
       <c r="E20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="28"/>
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1620,7 +1625,6 @@
       <c r="E21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="28"/>
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1633,7 +1637,6 @@
       <c r="E22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="28"/>
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1643,7 +1646,6 @@
       <c r="E23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="28"/>
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1653,7 +1655,6 @@
       <c r="E24" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="28"/>
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -1663,7 +1664,6 @@
       <c r="E25" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="28"/>
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -1671,7 +1671,6 @@
         <v>395</v>
       </c>
       <c r="E26" s="19"/>
-      <c r="F26" s="28"/>
       <c r="G26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1689,7 +1688,6 @@
       <c r="E27" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="28"/>
       <c r="G27" s="2"/>
       <c r="I27" s="14"/>
     </row>
@@ -1703,12 +1701,11 @@
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="28">
         <v>486</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="30" t="s">
-        <v>134</v>
+      <c r="H29" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="I29" s="14"/>
     </row>
@@ -1719,8 +1716,7 @@
       <c r="E30" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="H30" s="30"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -1733,8 +1729,7 @@
       <c r="E31" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="H31" s="30"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -1745,7 +1740,7 @@
       <c r="F32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="30"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
@@ -1753,10 +1748,10 @@
         <v>697</v>
       </c>
       <c r="D33" s="18"/>
-      <c r="H33" s="30"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="14"/>
       <c r="K33" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
@@ -1764,18 +1759,18 @@
         <v>800</v>
       </c>
       <c r="D34" s="18"/>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="29" t="s">
         <v>130</v>
       </c>
       <c r="I34" s="14"/>
       <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="29">
+      <c r="A35" s="28">
         <v>843</v>
       </c>
       <c r="D35" s="18"/>
-      <c r="H35" s="30" t="s">
+      <c r="H35" s="29" t="s">
         <v>131</v>
       </c>
       <c r="I35" s="14"/>
@@ -1788,7 +1783,7 @@
       <c r="D36" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H36" s="30"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="14"/>
       <c r="K36" s="13"/>
     </row>
@@ -1799,7 +1794,7 @@
       <c r="D37" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="30"/>
+      <c r="H37" s="29"/>
       <c r="I37" s="14"/>
       <c r="K37" s="13"/>
     </row>
@@ -1810,7 +1805,7 @@
       <c r="D38" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H38" s="30"/>
+      <c r="H38" s="29"/>
       <c r="I38" s="14"/>
       <c r="K38" s="13"/>
     </row>
@@ -1822,172 +1817,180 @@
       <c r="G39" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="H39" s="30" t="s">
-        <v>135</v>
+      <c r="H39" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="I39" s="14"/>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
-        <v>1115</v>
+        <v>987</v>
       </c>
       <c r="D40" s="21"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="28"/>
+      <c r="H40" s="30" t="s">
+        <v>149</v>
+      </c>
       <c r="I40" s="14"/>
-      <c r="J40" s="15" t="s">
-        <v>140</v>
-      </c>
       <c r="K40" s="13"/>
     </row>
-    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
+        <v>1115</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
         <v>1127</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E42" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="19"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="13"/>
-    </row>
-    <row r="42" spans="1:15" ht="33" x14ac:dyDescent="0.2">
-      <c r="A42" s="11">
-        <v>1206</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="22"/>
       <c r="G42" s="19"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="14"/>
       <c r="J42" s="15"/>
       <c r="K42" s="13"/>
     </row>
-    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
-        <v>1271</v>
+        <v>1206</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" s="22"/>
       <c r="G43" s="19"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="14"/>
       <c r="J43" s="15"/>
       <c r="K43" s="13"/>
     </row>
     <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
-        <v>1276</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="22" t="s">
-        <v>66</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="22"/>
       <c r="G44" s="19"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
       <c r="K44" s="13"/>
     </row>
-    <row r="45" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
-        <v>1299</v>
+        <v>1276</v>
       </c>
       <c r="D45" s="23"/>
-      <c r="E45" s="31"/>
+      <c r="E45" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="G45" s="19"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="14"/>
       <c r="J45" s="15"/>
       <c r="K45" s="13"/>
-      <c r="O45" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
-        <v>1300</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>1299</v>
       </c>
       <c r="D46" s="23"/>
+      <c r="E46" s="11"/>
       <c r="G46" s="19"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
       <c r="K46" s="13"/>
-      <c r="O46" s="14"/>
-    </row>
-    <row r="47" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+      <c r="O46" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
-        <v>1368</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>69</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="23"/>
       <c r="G47" s="19"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="14"/>
       <c r="J47" s="15"/>
       <c r="K47" s="13"/>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
-        <v>1402</v>
+        <v>1368</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G48" s="19"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="14"/>
       <c r="J48" s="15"/>
       <c r="K48" s="13"/>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
-        <v>1415</v>
-      </c>
-      <c r="E49" s="14"/>
+        <v>1402</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="G49" s="19"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="14"/>
       <c r="J49" s="15"/>
       <c r="K49" s="13"/>
-      <c r="N49" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="O49" s="14"/>
     </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
-        <v>1420</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>72</v>
-      </c>
+        <v>1415</v>
+      </c>
+      <c r="E50" s="14"/>
       <c r="G50" s="19"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
       <c r="K50" s="13"/>
-      <c r="N50" s="13"/>
+      <c r="N50" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="O50" s="14"/>
     </row>
     <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G51" s="19"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
       <c r="K51" s="13"/>
@@ -1996,12 +1999,13 @@
     </row>
     <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G52" s="19"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="14"/>
       <c r="J52" s="15"/>
       <c r="K52" s="13"/>
@@ -2010,517 +2014,563 @@
     </row>
     <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
-        <v>1452</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="14"/>
+        <v>1425</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="G53" s="19"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
       <c r="K53" s="13"/>
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
     </row>
-    <row r="54" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
-        <v>1453</v>
+        <v>1452</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="E54" s="14"/>
       <c r="G54" s="19"/>
-      <c r="I54" s="14" t="s">
-        <v>76</v>
-      </c>
+      <c r="H54" s="30"/>
+      <c r="I54" s="14"/>
       <c r="J54" s="15"/>
       <c r="K54" s="13"/>
       <c r="N54" s="13"/>
       <c r="O54" s="14"/>
     </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
-        <v>1492</v>
+        <v>1453</v>
       </c>
       <c r="E55" s="14"/>
       <c r="G55" s="19"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="J55" s="15"/>
       <c r="K55" s="13"/>
-      <c r="M55" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="N55" s="13"/>
       <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
-        <v>1519</v>
+        <v>1492</v>
       </c>
       <c r="E56" s="14"/>
       <c r="G56" s="19"/>
+      <c r="H56" s="30"/>
       <c r="J56" s="15"/>
       <c r="K56" s="13"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="13" t="s">
-        <v>77</v>
-      </c>
+      <c r="M56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N56" s="13"/>
       <c r="O56" s="14"/>
     </row>
-    <row r="57" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E57" s="14"/>
       <c r="G57" s="19"/>
+      <c r="H57" s="30"/>
       <c r="J57" s="15"/>
       <c r="K57" s="13"/>
-      <c r="M57" s="2" t="s">
-        <v>79</v>
+      <c r="M57" s="2"/>
+      <c r="N57" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="O57" s="14"/>
     </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
-        <v>1522</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>81</v>
-      </c>
+        <v>1521</v>
+      </c>
+      <c r="E58" s="14"/>
       <c r="G58" s="19"/>
+      <c r="H58" s="30"/>
       <c r="J58" s="15"/>
       <c r="K58" s="13"/>
+      <c r="M58" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O58" s="14"/>
     </row>
-    <row r="59" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
-        <v>1532</v>
-      </c>
-      <c r="E59" s="14"/>
+        <v>1522</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="G59" s="19"/>
-      <c r="J59" s="15" t="s">
-        <v>141</v>
-      </c>
+      <c r="H59" s="30"/>
+      <c r="J59" s="15"/>
       <c r="K59" s="13"/>
       <c r="O59" s="14"/>
     </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
-        <v>1564</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>80</v>
+        <v>1532</v>
       </c>
       <c r="E60" s="14"/>
       <c r="G60" s="19"/>
+      <c r="H60" s="30"/>
+      <c r="J60" s="15" t="s">
+        <v>140</v>
+      </c>
       <c r="K60" s="13"/>
       <c r="O60" s="14"/>
     </row>
-    <row r="61" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
-        <v>1583</v>
+        <v>1564</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="E61" s="14"/>
       <c r="G61" s="19"/>
+      <c r="H61" s="30"/>
       <c r="K61" s="13"/>
       <c r="O61" s="14"/>
-      <c r="R61" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
-        <v>1626</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>85</v>
+        <v>1583</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="19"/>
+      <c r="H62" s="30"/>
       <c r="K62" s="13"/>
       <c r="O62" s="14"/>
+      <c r="R62" s="24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
-        <v>1636</v>
+        <v>1626</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="19"/>
+      <c r="H63" s="30"/>
       <c r="K63" s="13"/>
       <c r="O63" s="14"/>
     </row>
-    <row r="64" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
-        <v>1644</v>
-      </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="14" t="s">
-        <v>87</v>
-      </c>
+        <v>1636</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="14"/>
       <c r="G64" s="19"/>
+      <c r="H64" s="30"/>
       <c r="K64" s="13"/>
       <c r="O64" s="14"/>
     </row>
-    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
-        <v>1673</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>88</v>
+        <v>1644</v>
       </c>
       <c r="D65" s="20"/>
+      <c r="E65" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="G65" s="19"/>
+      <c r="H65" s="30"/>
       <c r="K65" s="13"/>
       <c r="O65" s="14"/>
     </row>
-    <row r="66" spans="1:19" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
-        <v>1687</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>89</v>
+        <v>1673</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="D66" s="20"/>
       <c r="G66" s="19"/>
+      <c r="H66" s="30"/>
       <c r="K66" s="13"/>
       <c r="O66" s="14"/>
     </row>
-    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
-        <v>1722</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>90</v>
-      </c>
+        <v>1687</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="20"/>
       <c r="G67" s="19"/>
+      <c r="H67" s="30"/>
       <c r="K67" s="13"/>
       <c r="O67" s="14"/>
     </row>
     <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
-        <v>1775</v>
-      </c>
-      <c r="D68" s="20"/>
+        <v>1722</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="G68" s="19"/>
+      <c r="H68" s="30"/>
       <c r="K68" s="13"/>
       <c r="O68" s="14"/>
-      <c r="S68" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
-        <v>1776</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>93</v>
+        <v>1775</v>
       </c>
       <c r="D69" s="20"/>
       <c r="G69" s="19"/>
+      <c r="H69" s="30"/>
       <c r="K69" s="13"/>
       <c r="O69" s="14"/>
       <c r="S69" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
-        <v>1789</v>
+        <v>1776</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D70" s="20"/>
       <c r="G70" s="19"/>
+      <c r="H70" s="30"/>
       <c r="K70" s="13"/>
-      <c r="L70" s="26" t="s">
-        <v>95</v>
-      </c>
       <c r="O70" s="14"/>
+      <c r="S70" s="25" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="71" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
-        <v>1797</v>
+        <v>1789</v>
       </c>
       <c r="D71" s="20"/>
       <c r="G71" s="19"/>
-      <c r="K71" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="L71" s="26"/>
+      <c r="H71" s="30"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="26" t="s">
+        <v>95</v>
+      </c>
       <c r="O71" s="14"/>
     </row>
-    <row r="72" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
-        <v>1806</v>
+        <v>1792</v>
       </c>
       <c r="D72" s="20"/>
-      <c r="G72" s="19" t="s">
-        <v>136</v>
-      </c>
+      <c r="G72" s="19"/>
+      <c r="H72" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="K72" s="13"/>
       <c r="L72" s="26"/>
       <c r="O72" s="14"/>
     </row>
-    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
-        <v>1811</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>96</v>
+        <v>1797</v>
       </c>
       <c r="D73" s="20"/>
+      <c r="G73" s="19"/>
+      <c r="K73" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="L73" s="26"/>
       <c r="O73" s="14"/>
     </row>
-    <row r="74" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="57" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
-        <v>1815</v>
+        <v>1806</v>
       </c>
       <c r="D74" s="20"/>
-      <c r="L74" s="26" t="s">
-        <v>97</v>
-      </c>
+      <c r="G74" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L74" s="26"/>
       <c r="O74" s="14"/>
     </row>
     <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
-        <v>1840</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>98</v>
-      </c>
+        <v>1811</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="20"/>
+      <c r="L75" s="26"/>
       <c r="O75" s="14"/>
     </row>
-    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
-        <v>1858</v>
+        <v>1815</v>
       </c>
       <c r="D76" s="20"/>
-      <c r="F76" s="11" t="s">
-        <v>99</v>
+      <c r="L76" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="O76" s="14"/>
     </row>
     <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O77" s="14"/>
     </row>
-    <row r="78" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
-        <v>1866</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>101</v>
+        <v>1858</v>
       </c>
       <c r="D78" s="20"/>
+      <c r="F78" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="O78" s="14"/>
     </row>
     <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
-        <v>1867</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79" s="20"/>
+        <v>1860</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="O79" s="14"/>
     </row>
-    <row r="80" spans="1:19" ht="45" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
-        <v>1886</v>
+        <v>1866</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D80" s="20"/>
       <c r="O80" s="14"/>
     </row>
-    <row r="81" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
+        <v>1867</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="20"/>
+      <c r="O81" s="14"/>
+    </row>
+    <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="A82" s="11">
+        <v>1886</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" s="20"/>
+      <c r="O82" s="14"/>
+    </row>
+    <row r="83" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="11">
         <v>1879</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B83" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D83" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E83" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="O81" s="14"/>
-    </row>
-    <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="11">
-        <v>1914</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E82" s="13"/>
-      <c r="O82" s="14"/>
-    </row>
-    <row r="83" spans="1:15" ht="66" x14ac:dyDescent="0.2">
-      <c r="A83" s="11">
-        <v>1917</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E83" s="13"/>
       <c r="O83" s="14"/>
     </row>
     <row r="84" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E84" s="13"/>
       <c r="O84" s="14"/>
     </row>
-    <row r="85" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="66" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
-        <v>1921</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>112</v>
+        <v>1917</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E85" s="13"/>
       <c r="O85" s="14"/>
     </row>
-    <row r="86" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
+        <v>1918</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="O86" s="14"/>
+    </row>
+    <row r="87" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="11">
+        <v>1921</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" s="13"/>
+      <c r="O87" s="14"/>
+    </row>
+    <row r="88" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+      <c r="A88" s="11">
         <v>1922</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B88" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="D86" s="27"/>
-      <c r="E86" s="13"/>
-      <c r="O86" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="30.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="11">
-        <v>1937</v>
-      </c>
-      <c r="D87" s="27"/>
-      <c r="E87" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="33" x14ac:dyDescent="0.2">
-      <c r="A88" s="11">
-        <v>1939</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D88" s="27"/>
       <c r="E88" s="13"/>
-    </row>
-    <row r="89" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="O88" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
-        <v>1940</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>116</v>
+        <v>1937</v>
       </c>
       <c r="D89" s="27"/>
-      <c r="E89" s="13"/>
-    </row>
-    <row r="90" spans="1:15" ht="30.75" x14ac:dyDescent="0.2">
+      <c r="E89" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
-        <v>1941</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>117</v>
+        <v>1939</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D90" s="27"/>
       <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:15" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
+        <v>1941</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" s="27"/>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="11">
+        <v>1943</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="27"/>
+      <c r="E93" s="13"/>
+    </row>
+    <row r="94" spans="1:15" ht="30.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="11">
         <v>1945</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D92" s="27"/>
-      <c r="E92" s="13" t="s">
+      <c r="D94" s="27"/>
+      <c r="E94" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11">
+    <row r="95" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="11">
         <v>1949</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="11">
+    <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="11">
         <v>1966</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="74.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="11">
+    <row r="97" spans="1:4" ht="74.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="11">
         <v>1976</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="11">
+    <row r="98" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="11">
         <v>1986</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="11">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="11">
         <v>1989</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D99" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A98" s="11">
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A100" s="11">
         <v>1991</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B100" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="11">
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="11">
         <v>2023</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>126</v>
       </c>
     </row>

--- a/历史/大事年表.xlsx
+++ b/历史/大事年表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wpf_custom\workspace\github\my-note-2\历史\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A173C77C-88FE-4B3D-8E16-2CFA1432506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998830E8-A01B-42FD-A9FC-E483F8814B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="645" windowWidth="22605" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="405" windowWidth="22605" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
   <si>
     <t>前 3000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,10 +233,6 @@
   </si>
   <si>
     <t>刘裕废司马德文，建立刘宋，东晋灭亡，南北朝开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东罗马（拜占庭）帝国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -354,14 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大英帝国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大英帝国开始海外殖民。17 世纪殖民美洲。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哥伦布发现美洲（西班牙）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,19 +377,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美国独立战争爆发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瓦特发明蒸汽机，是第一次工业革命的标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美国独立战争胜利。美国颁布独立宣言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -717,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>波斯帝国（阿契美尼德王朝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>佛罗伦萨脱离托斯卡纳侯国领，获得自治权，成立共和国。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,10 +713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法兰西第一帝国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奥斯曼帝国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -754,21 +722,123 @@
   </si>
   <si>
     <t>苏丹制被废除，奥斯曼帝国灭亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法兰西公爵雨果卡佩被推举为法兰克人的国王，建立卡佩王朝，视为法兰西王国的开端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法兰西国王路易十六被处死，法兰西王国灭亡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国独立战争爆发.。（列克星敦的枪声）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>罗马共和国
 罗马帝国
 法兰克王国
-法兰西王国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法兰西公爵雨果卡佩被推举为法兰克人的国王，建立卡佩王朝，视为法兰西王国的开端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法兰西国王路易十六被处死，法兰西王国灭亡。</t>
+法兰西王国
+法兰西第一帝国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿破仑被授予终身执政官，法兰西第一帝国成立。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东罗马（拜占庭）帝国
+法兰西第一共和国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法兰西王国国会宣布共和，法兰西第一共和国成立。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿破仑即位，法兰西第一共和国灭亡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南北战争开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南北战争结束，北方胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃塞尔斯坦击退维京人，征服六国，标志英格兰王国成立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1707年联合法案通过，英格兰王国不再作为一个独立国家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉弗莱·吉尔伯特爵士在纽芬兰建立英国的第一个北美殖民地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国在新斯科舍建立第一个北美殖民地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1707年联合法案通过，英格兰与苏格兰合并，大不列颠王国成立。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800年联合法令通过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大不列颠王国吞并爱尔兰王国，成立大不列颠及爱尔兰联合王国。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波斯帝国（阿契美尼德王朝）
+大不列颠王国
+大不列颠及爱尔兰联合王国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱尔兰退出联合王国。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大不列颠及北爱尔兰重新划分为大不列颠及北爱尔兰联合王国。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英格兰王国
+大不列颠及北爱尔兰联合王国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七年战争结束，巴黎条约签订。法国丢掉了北美的大部分殖民地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国独立战争胜利。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国颁布独立宣言，美国正式建国。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国赢得美墨战争，获得了北美西部的地区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七年战争结束，巴黎条约签订。英国大获全胜，奠定了日不落帝国的地位。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,7 +846,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,8 +909,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,12 +1016,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -980,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -994,10 +1065,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1054,20 +1125,23 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1355,16 +1429,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I72" sqref="I72:I73"/>
+      <selection pane="bottomRight" activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
@@ -1376,18 +1450,17 @@
     <col min="8" max="8" width="29.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.375" style="1" customWidth="1"/>
     <col min="10" max="11" width="29.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="27.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.75" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="28.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="31.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="29.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="27.625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="99.75">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1395,71 +1468,68 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1467,7 +1537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1475,7 +1545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="28.5">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1483,7 +1553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1493,7 +1563,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1501,16 +1571,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="28.5">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="12"/>
-      <c r="Q9" s="13" t="s">
+      <c r="P9" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="28.5">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1520,9 +1590,9 @@
       <c r="H10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:18" ht="28.5">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1530,11 +1600,11 @@
         <v>21</v>
       </c>
       <c r="H11" s="14"/>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1543,7 +1613,7 @@
       </c>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1552,7 +1622,7 @@
       </c>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1561,7 +1631,7 @@
       </c>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="33" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1570,7 +1640,7 @@
       </c>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="28.5">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1649,7 @@
       </c>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="28.5">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1588,7 +1658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="28.5">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1597,7 +1667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1606,7 +1676,7 @@
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>25</v>
       </c>
@@ -1615,7 +1685,7 @@
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>220</v>
       </c>
@@ -1627,7 +1697,7 @@
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>266</v>
       </c>
@@ -1639,7 +1709,7 @@
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>316</v>
       </c>
@@ -1648,7 +1718,7 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>317</v>
       </c>
@@ -1657,7 +1727,7 @@
       </c>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="28.5">
       <c r="A25" s="11">
         <v>383</v>
       </c>
@@ -1666,7 +1736,7 @@
       </c>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="42.75">
       <c r="A26" s="11">
         <v>395</v>
       </c>
@@ -1681,7 +1751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="28.5">
       <c r="A27" s="1">
         <v>420</v>
       </c>
@@ -1691,888 +1761,1143 @@
       <c r="G27" s="2"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="42.75">
       <c r="A28" s="1">
         <v>476</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+    <row r="29" spans="1:9" ht="28.5">
+      <c r="A29" s="27">
         <v>486</v>
       </c>
-      <c r="H29" s="29" t="s">
-        <v>133</v>
+      <c r="H29" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>581</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="29"/>
+        <v>52</v>
+      </c>
+      <c r="H30" s="28"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="28.5">
       <c r="A31" s="11">
         <v>618</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="29"/>
+        <v>53</v>
+      </c>
+      <c r="H31" s="28"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="11">
         <v>645</v>
       </c>
       <c r="D32" s="18"/>
       <c r="F32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="29"/>
+        <v>54</v>
+      </c>
+      <c r="H32" s="28"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="28.5">
       <c r="A33" s="11">
         <v>697</v>
       </c>
       <c r="D33" s="18"/>
-      <c r="H33" s="29"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="14"/>
       <c r="K33" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="28.5">
       <c r="A34" s="11">
         <v>800</v>
       </c>
       <c r="D34" s="18"/>
-      <c r="H34" s="29" t="s">
-        <v>130</v>
+      <c r="H34" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="I34" s="14"/>
       <c r="K34" s="13"/>
     </row>
-    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="28">
+    <row r="35" spans="1:17" ht="15">
+      <c r="A35" s="27">
         <v>843</v>
       </c>
       <c r="D35" s="18"/>
-      <c r="H35" s="29" t="s">
-        <v>131</v>
+      <c r="H35" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="I35" s="14"/>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="15">
       <c r="A36" s="11">
         <v>878</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="29"/>
+        <v>57</v>
+      </c>
+      <c r="H36" s="28"/>
       <c r="I36" s="14"/>
       <c r="K36" s="13"/>
     </row>
-    <row r="37" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="28.5">
       <c r="A37" s="11">
         <v>907</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="29"/>
+        <v>58</v>
+      </c>
+      <c r="H37" s="28"/>
       <c r="I37" s="14"/>
       <c r="K37" s="13"/>
     </row>
-    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="28.5">
       <c r="A38" s="11">
-        <v>960</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" s="29"/>
+        <v>927</v>
+      </c>
+      <c r="H38" s="28"/>
       <c r="I38" s="14"/>
       <c r="K38" s="13"/>
-    </row>
-    <row r="39" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="Q38" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="30">
       <c r="A39" s="11">
-        <v>962</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="G39" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>134</v>
-      </c>
+        <v>960</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="28"/>
       <c r="I39" s="14"/>
       <c r="K39" s="13"/>
-    </row>
-    <row r="40" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="Q39" s="15"/>
+    </row>
+    <row r="40" spans="1:17" ht="42.75">
       <c r="A40" s="11">
-        <v>987</v>
+        <v>962</v>
       </c>
       <c r="D40" s="21"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="30" t="s">
-        <v>149</v>
+      <c r="G40" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="I40" s="14"/>
       <c r="K40" s="13"/>
-    </row>
-    <row r="41" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Q40" s="15"/>
+    </row>
+    <row r="41" spans="1:17" ht="42.75">
       <c r="A41" s="11">
-        <v>1115</v>
+        <v>987</v>
       </c>
       <c r="D41" s="21"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="30"/>
+      <c r="H41" s="29" t="s">
+        <v>140</v>
+      </c>
       <c r="I41" s="14"/>
-      <c r="J41" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="K41" s="13"/>
-    </row>
-    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q41" s="15"/>
+    </row>
+    <row r="42" spans="1:17" ht="28.5">
       <c r="A42" s="11">
+        <v>1115</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="Q42" s="15"/>
+    </row>
+    <row r="43" spans="1:17" ht="15">
+      <c r="A43" s="11">
         <v>1127</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D43" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" spans="1:15" ht="33" x14ac:dyDescent="0.2">
-      <c r="A43" s="11">
-        <v>1206</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="22"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="30"/>
+      <c r="H43" s="29"/>
       <c r="I43" s="14"/>
       <c r="J43" s="15"/>
       <c r="K43" s="13"/>
-    </row>
-    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q43" s="15"/>
+    </row>
+    <row r="44" spans="1:17" ht="33">
       <c r="A44" s="11">
-        <v>1271</v>
+        <v>1206</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E44" s="22"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="30"/>
+      <c r="H44" s="29"/>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
       <c r="K44" s="13"/>
-    </row>
-    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q44" s="15"/>
+    </row>
+    <row r="45" spans="1:17" ht="16.5">
       <c r="A45" s="11">
-        <v>1276</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="22" t="s">
-        <v>66</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="22"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="30"/>
+      <c r="H45" s="29"/>
       <c r="I45" s="14"/>
       <c r="J45" s="15"/>
       <c r="K45" s="13"/>
-    </row>
-    <row r="46" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Q45" s="15"/>
+    </row>
+    <row r="46" spans="1:17" ht="16.5">
       <c r="A46" s="11">
-        <v>1299</v>
+        <v>1276</v>
       </c>
       <c r="D46" s="23"/>
-      <c r="E46" s="11"/>
+      <c r="E46" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="G46" s="19"/>
-      <c r="H46" s="30"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
       <c r="K46" s="13"/>
-      <c r="O46" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q46" s="15"/>
+    </row>
+    <row r="47" spans="1:17" ht="28.5">
       <c r="A47" s="11">
-        <v>1300</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>67</v>
+        <v>1299</v>
       </c>
       <c r="D47" s="23"/>
+      <c r="E47" s="11"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="30"/>
+      <c r="H47" s="29"/>
       <c r="I47" s="14"/>
       <c r="J47" s="15"/>
       <c r="K47" s="13"/>
-      <c r="O47" s="14"/>
-    </row>
-    <row r="48" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+      <c r="N47" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q47" s="15"/>
+    </row>
+    <row r="48" spans="1:17" ht="16.5">
       <c r="A48" s="11">
-        <v>1368</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>69</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="23"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="30"/>
+      <c r="H48" s="29"/>
       <c r="I48" s="14"/>
       <c r="J48" s="15"/>
       <c r="K48" s="13"/>
-      <c r="O48" s="14"/>
-    </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="N48" s="14"/>
+      <c r="Q48" s="15"/>
+    </row>
+    <row r="49" spans="1:17" ht="33">
       <c r="A49" s="11">
-        <v>1402</v>
+        <v>1368</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G49" s="19"/>
-      <c r="H49" s="30"/>
+      <c r="H49" s="29"/>
       <c r="I49" s="14"/>
       <c r="J49" s="15"/>
       <c r="K49" s="13"/>
-      <c r="O49" s="14"/>
-    </row>
-    <row r="50" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="N49" s="14"/>
+      <c r="Q49" s="15"/>
+    </row>
+    <row r="50" spans="1:17" ht="15">
       <c r="A50" s="11">
-        <v>1415</v>
-      </c>
-      <c r="E50" s="14"/>
+        <v>1402</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G50" s="19"/>
-      <c r="H50" s="30"/>
+      <c r="H50" s="29"/>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
       <c r="K50" s="13"/>
-      <c r="N50" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="O50" s="14"/>
-    </row>
-    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="N50" s="14"/>
+      <c r="Q50" s="15"/>
+    </row>
+    <row r="51" spans="1:17" ht="28.5">
       <c r="A51" s="11">
-        <v>1420</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>72</v>
-      </c>
+        <v>1415</v>
+      </c>
+      <c r="E51" s="14"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="30"/>
+      <c r="H51" s="29"/>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
       <c r="K51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="14"/>
-    </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="M51" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N51" s="14"/>
+      <c r="Q51" s="15"/>
+    </row>
+    <row r="52" spans="1:17" ht="15">
       <c r="A52" s="11">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G52" s="19"/>
-      <c r="H52" s="30"/>
+      <c r="H52" s="29"/>
       <c r="I52" s="14"/>
       <c r="J52" s="15"/>
       <c r="K52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="14"/>
-    </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="M52" s="13"/>
+      <c r="N52" s="14"/>
+      <c r="Q52" s="15"/>
+    </row>
+    <row r="53" spans="1:17" ht="15">
       <c r="A53" s="11">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G53" s="19"/>
-      <c r="H53" s="30"/>
+      <c r="H53" s="29"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
       <c r="K53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="14"/>
-    </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="M53" s="13"/>
+      <c r="N53" s="14"/>
+      <c r="Q53" s="15"/>
+    </row>
+    <row r="54" spans="1:17" ht="15">
       <c r="A54" s="11">
-        <v>1452</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="14"/>
+        <v>1425</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="G54" s="19"/>
-      <c r="H54" s="30"/>
+      <c r="H54" s="29"/>
       <c r="I54" s="14"/>
       <c r="J54" s="15"/>
       <c r="K54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="14"/>
-    </row>
-    <row r="55" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="M54" s="13"/>
+      <c r="N54" s="14"/>
+      <c r="Q54" s="15"/>
+    </row>
+    <row r="55" spans="1:17" ht="15">
       <c r="A55" s="11">
-        <v>1453</v>
+        <v>1452</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="E55" s="14"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="14" t="s">
-        <v>76</v>
-      </c>
+      <c r="H55" s="29"/>
+      <c r="I55" s="14"/>
       <c r="J55" s="15"/>
       <c r="K55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="14"/>
-    </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="M55" s="13"/>
+      <c r="N55" s="14"/>
+      <c r="Q55" s="15"/>
+    </row>
+    <row r="56" spans="1:17" ht="28.5">
       <c r="A56" s="11">
-        <v>1492</v>
+        <v>1453</v>
       </c>
       <c r="E56" s="14"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="30"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="J56" s="15"/>
       <c r="K56" s="13"/>
-      <c r="M56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N56" s="13"/>
-      <c r="O56" s="14"/>
-    </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="M56" s="13"/>
+      <c r="N56" s="14"/>
+      <c r="Q56" s="15"/>
+    </row>
+    <row r="57" spans="1:17" ht="15">
       <c r="A57" s="11">
-        <v>1519</v>
+        <v>1492</v>
       </c>
       <c r="E57" s="14"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="30"/>
+      <c r="H57" s="29"/>
       <c r="J57" s="15"/>
       <c r="K57" s="13"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="O57" s="14"/>
-    </row>
-    <row r="58" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M57" s="13"/>
+      <c r="N57" s="14"/>
+      <c r="Q57" s="15"/>
+    </row>
+    <row r="58" spans="1:17" ht="15">
       <c r="A58" s="11">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E58" s="14"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="30"/>
+      <c r="H58" s="29"/>
       <c r="J58" s="15"/>
       <c r="K58" s="13"/>
-      <c r="M58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O58" s="14"/>
-    </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="L58" s="2"/>
+      <c r="M58" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N58" s="14"/>
+      <c r="Q58" s="15"/>
+    </row>
+    <row r="59" spans="1:17" ht="55.5" customHeight="1">
       <c r="A59" s="11">
-        <v>1522</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>81</v>
-      </c>
+        <v>1521</v>
+      </c>
+      <c r="E59" s="14"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="30"/>
+      <c r="H59" s="29"/>
       <c r="J59" s="15"/>
       <c r="K59" s="13"/>
-      <c r="O59" s="14"/>
-    </row>
-    <row r="60" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="L59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N59" s="14"/>
+      <c r="Q59" s="15"/>
+    </row>
+    <row r="60" spans="1:17" ht="15">
       <c r="A60" s="11">
+        <v>1522</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="19"/>
+      <c r="H60" s="29"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="13"/>
+      <c r="N60" s="14"/>
+      <c r="Q60" s="15"/>
+    </row>
+    <row r="61" spans="1:17" ht="42.75">
+      <c r="A61" s="11">
         <v>1532</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="30"/>
-      <c r="J60" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K60" s="13"/>
-      <c r="O60" s="14"/>
-    </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="11">
-        <v>1564</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="E61" s="14"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="30"/>
+      <c r="H61" s="29"/>
+      <c r="J61" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="K61" s="13"/>
-      <c r="O61" s="14"/>
-    </row>
-    <row r="62" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N61" s="14"/>
+      <c r="Q61" s="15"/>
+    </row>
+    <row r="62" spans="1:17" ht="15">
       <c r="A62" s="11">
-        <v>1583</v>
+        <v>1564</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="30"/>
+      <c r="H62" s="29"/>
       <c r="K62" s="13"/>
-      <c r="O62" s="14"/>
-      <c r="R62" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="N62" s="14"/>
+      <c r="Q62" s="15"/>
+    </row>
+    <row r="63" spans="1:17" ht="41.25" customHeight="1">
       <c r="A63" s="11">
-        <v>1626</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>85</v>
+        <v>1583</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="30"/>
+      <c r="H63" s="29"/>
       <c r="K63" s="13"/>
-      <c r="O63" s="14"/>
-    </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="N63" s="14"/>
+      <c r="Q63" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="41.25" customHeight="1">
       <c r="A64" s="11">
-        <v>1636</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>86</v>
+        <v>1605</v>
       </c>
       <c r="E64" s="14"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="30"/>
+      <c r="H64" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="K64" s="13"/>
-      <c r="O64" s="14"/>
-    </row>
-    <row r="65" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="N64" s="14"/>
+      <c r="Q64" s="15"/>
+    </row>
+    <row r="65" spans="1:18" ht="15">
       <c r="A65" s="11">
+        <v>1626</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="29"/>
+      <c r="K65" s="13"/>
+      <c r="N65" s="14"/>
+      <c r="Q65" s="15"/>
+    </row>
+    <row r="66" spans="1:18" ht="15">
+      <c r="A66" s="11">
+        <v>1636</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="29"/>
+      <c r="K66" s="13"/>
+      <c r="N66" s="14"/>
+      <c r="Q66" s="15"/>
+    </row>
+    <row r="67" spans="1:18" ht="28.5">
+      <c r="A67" s="11">
         <v>1644</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="30"/>
-      <c r="K65" s="13"/>
-      <c r="O65" s="14"/>
-    </row>
-    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="11">
+      <c r="D67" s="20"/>
+      <c r="E67" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" s="19"/>
+      <c r="H67" s="29"/>
+      <c r="K67" s="13"/>
+      <c r="N67" s="14"/>
+      <c r="Q67" s="15"/>
+    </row>
+    <row r="68" spans="1:18" ht="15">
+      <c r="A68" s="11">
         <v>1673</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" s="20"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="30"/>
-      <c r="K66" s="13"/>
-      <c r="O66" s="14"/>
-    </row>
-    <row r="67" spans="1:19" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="11">
+      <c r="B68" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="20"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="29"/>
+      <c r="K68" s="13"/>
+      <c r="N68" s="14"/>
+      <c r="Q68" s="15"/>
+    </row>
+    <row r="69" spans="1:18" ht="49.5">
+      <c r="A69" s="11">
         <v>1687</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="20"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="30"/>
-      <c r="K67" s="13"/>
-      <c r="O67" s="14"/>
-    </row>
-    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="11">
-        <v>1722</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="30"/>
-      <c r="K68" s="13"/>
-      <c r="O68" s="14"/>
-    </row>
-    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="11">
-        <v>1775</v>
+      <c r="B69" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D69" s="20"/>
       <c r="G69" s="19"/>
-      <c r="H69" s="30"/>
+      <c r="H69" s="29"/>
       <c r="K69" s="13"/>
-      <c r="O69" s="14"/>
-      <c r="S69" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="N69" s="14"/>
+      <c r="Q69" s="15"/>
+    </row>
+    <row r="70" spans="1:18" ht="42.75">
       <c r="A70" s="11">
-        <v>1776</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>1707</v>
+      </c>
+      <c r="B70" s="3"/>
       <c r="D70" s="20"/>
       <c r="G70" s="19"/>
-      <c r="H70" s="30"/>
+      <c r="H70" s="29"/>
       <c r="K70" s="13"/>
-      <c r="O70" s="14"/>
-      <c r="S70" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="N70" s="14"/>
+      <c r="P70" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q70" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="15">
       <c r="A71" s="11">
-        <v>1789</v>
-      </c>
-      <c r="D71" s="20"/>
+        <v>1722</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="G71" s="19"/>
-      <c r="H71" s="30"/>
+      <c r="H71" s="29"/>
       <c r="K71" s="13"/>
-      <c r="L71" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="O71" s="14"/>
-    </row>
-    <row r="72" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="N71" s="14"/>
+      <c r="P71" s="29"/>
+    </row>
+    <row r="72" spans="1:18" ht="42.75">
       <c r="A72" s="11">
-        <v>1792</v>
+        <v>1763</v>
       </c>
       <c r="D72" s="20"/>
       <c r="G72" s="19"/>
-      <c r="H72" s="30" t="s">
-        <v>150</v>
+      <c r="H72" s="29" t="s">
+        <v>162</v>
       </c>
       <c r="K72" s="13"/>
-      <c r="L72" s="26"/>
-      <c r="O72" s="14"/>
-    </row>
-    <row r="73" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="N72" s="14"/>
+      <c r="P72" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="28.5">
       <c r="A73" s="11">
-        <v>1797</v>
+        <v>1775</v>
       </c>
       <c r="D73" s="20"/>
       <c r="G73" s="19"/>
-      <c r="K73" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L73" s="26"/>
-      <c r="O73" s="14"/>
-    </row>
-    <row r="74" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+      <c r="H73" s="29"/>
+      <c r="K73" s="13"/>
+      <c r="N73" s="14"/>
+      <c r="P73" s="29"/>
+      <c r="R73" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="28.5">
       <c r="A74" s="11">
+        <v>1776</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="20"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="29"/>
+      <c r="K74" s="13"/>
+      <c r="N74" s="14"/>
+      <c r="P74" s="29"/>
+      <c r="R74" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="15">
+      <c r="A75" s="11">
+        <v>1783</v>
+      </c>
+      <c r="D75" s="20"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="29"/>
+      <c r="K75" s="13"/>
+      <c r="N75" s="14"/>
+      <c r="P75" s="29"/>
+      <c r="R75" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="15">
+      <c r="A76" s="11">
+        <v>1789</v>
+      </c>
+      <c r="D76" s="20"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="K76" s="13"/>
+      <c r="N76" s="14"/>
+      <c r="P76" s="29"/>
+      <c r="R76" s="24"/>
+    </row>
+    <row r="77" spans="1:18" ht="28.5">
+      <c r="A77" s="11">
+        <v>1792</v>
+      </c>
+      <c r="D77" s="20"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I77" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="K77" s="13"/>
+      <c r="N77" s="14"/>
+      <c r="P77" s="29"/>
+      <c r="R77" s="24"/>
+    </row>
+    <row r="78" spans="1:18" ht="28.5">
+      <c r="A78" s="11">
+        <v>1797</v>
+      </c>
+      <c r="D78" s="20"/>
+      <c r="G78" s="19"/>
+      <c r="I78" s="30"/>
+      <c r="K78" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N78" s="14"/>
+      <c r="P78" s="29"/>
+      <c r="R78" s="24"/>
+    </row>
+    <row r="79" spans="1:18" ht="15">
+      <c r="A79" s="11">
+        <v>1800</v>
+      </c>
+      <c r="D79" s="20"/>
+      <c r="G79" s="19"/>
+      <c r="I79" s="30"/>
+      <c r="N79" s="14"/>
+      <c r="P79" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="R79" s="24"/>
+    </row>
+    <row r="80" spans="1:18" ht="42.75">
+      <c r="A80" s="11">
+        <v>1801</v>
+      </c>
+      <c r="D80" s="20"/>
+      <c r="G80" s="19"/>
+      <c r="I80" s="30"/>
+      <c r="N80" s="14"/>
+      <c r="P80" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="R80" s="24"/>
+    </row>
+    <row r="81" spans="1:18" ht="28.5">
+      <c r="A81" s="11">
+        <v>1804</v>
+      </c>
+      <c r="D81" s="20"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I81" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="N81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="R81" s="24"/>
+    </row>
+    <row r="82" spans="1:18" ht="57">
+      <c r="A82" s="11">
         <v>1806</v>
       </c>
-      <c r="D74" s="20"/>
-      <c r="G74" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="L74" s="26"/>
-      <c r="O74" s="14"/>
-    </row>
-    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="11">
+      <c r="D82" s="20"/>
+      <c r="G82" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="25"/>
+      <c r="N82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="R82" s="24"/>
+    </row>
+    <row r="83" spans="1:18" ht="15">
+      <c r="A83" s="11">
         <v>1811</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B83" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="20"/>
+      <c r="H83" s="25"/>
+      <c r="N83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="R83" s="24"/>
+    </row>
+    <row r="84" spans="1:18" ht="28.5">
+      <c r="A84" s="11">
+        <v>1815</v>
+      </c>
+      <c r="D84" s="20"/>
+      <c r="H84" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="N84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="R84" s="24"/>
+    </row>
+    <row r="85" spans="1:18" ht="15">
+      <c r="A85" s="11">
+        <v>1840</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="N85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="R85" s="24"/>
+    </row>
+    <row r="86" spans="1:18" ht="28.5">
+      <c r="A86" s="11">
+        <v>1848</v>
+      </c>
+      <c r="D86" s="20"/>
+      <c r="N86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="R86" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="15">
+      <c r="A87" s="11">
+        <v>1858</v>
+      </c>
+      <c r="D87" s="20"/>
+      <c r="F87" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N87" s="14"/>
+      <c r="P87" s="14"/>
+      <c r="R87" s="24"/>
+    </row>
+    <row r="88" spans="1:18" ht="15">
+      <c r="A88" s="11">
+        <v>1860</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="N88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="R88" s="24"/>
+    </row>
+    <row r="89" spans="1:18" ht="15">
+      <c r="A89" s="11">
+        <v>1861</v>
+      </c>
+      <c r="D89" s="20"/>
+      <c r="N89" s="14"/>
+      <c r="P89" s="14"/>
+      <c r="R89" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="15">
+      <c r="A90" s="11">
+        <v>1865</v>
+      </c>
+      <c r="D90" s="20"/>
+      <c r="N90" s="14"/>
+      <c r="P90" s="14"/>
+      <c r="R90" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="30">
+      <c r="A91" s="11">
+        <v>1866</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="20"/>
+      <c r="N91" s="14"/>
+      <c r="P91" s="14"/>
+      <c r="R91" s="24"/>
+    </row>
+    <row r="92" spans="1:18" ht="15">
+      <c r="A92" s="11">
+        <v>1867</v>
+      </c>
+      <c r="B92" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="L75" s="26"/>
-      <c r="O75" s="14"/>
-    </row>
-    <row r="76" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="11">
-        <v>1815</v>
-      </c>
-      <c r="D76" s="20"/>
-      <c r="L76" s="26" t="s">
+      <c r="D92" s="20"/>
+      <c r="N92" s="14"/>
+      <c r="P92" s="14"/>
+      <c r="R92" s="24"/>
+    </row>
+    <row r="93" spans="1:18" ht="45">
+      <c r="A93" s="11">
+        <v>1886</v>
+      </c>
+      <c r="B93" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="O76" s="14"/>
-    </row>
-    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="11">
-        <v>1840</v>
-      </c>
-      <c r="D77" s="20" t="s">
+      <c r="D93" s="20"/>
+      <c r="N93" s="14"/>
+      <c r="P93" s="14"/>
+      <c r="R93" s="24"/>
+    </row>
+    <row r="94" spans="1:18" ht="28.5">
+      <c r="A94" s="11">
+        <v>1879</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="O77" s="14"/>
-    </row>
-    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="11">
-        <v>1858</v>
-      </c>
-      <c r="D78" s="20"/>
-      <c r="F78" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="O78" s="14"/>
-    </row>
-    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="11">
-        <v>1860</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="O79" s="14"/>
-    </row>
-    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A80" s="11">
-        <v>1866</v>
-      </c>
-      <c r="B80" s="11" t="s">
+      <c r="D94" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="20"/>
-      <c r="O80" s="14"/>
-    </row>
-    <row r="81" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="11">
-        <v>1867</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" s="20"/>
-      <c r="O81" s="14"/>
-    </row>
-    <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="A82" s="11">
-        <v>1886</v>
-      </c>
-      <c r="B82" s="11" t="s">
+      <c r="N94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="R94" s="24"/>
+    </row>
+    <row r="95" spans="1:18" ht="15">
+      <c r="A95" s="11">
+        <v>1914</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="O82" s="14"/>
-    </row>
-    <row r="83" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="11">
-        <v>1879</v>
-      </c>
-      <c r="B83" s="11" t="s">
+      <c r="E95" s="13"/>
+      <c r="N95" s="14"/>
+      <c r="P95" s="14"/>
+      <c r="R95" s="24"/>
+    </row>
+    <row r="96" spans="1:18" ht="66">
+      <c r="A96" s="11">
+        <v>1917</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="E96" s="13"/>
+      <c r="N96" s="14"/>
+      <c r="P96" s="14"/>
+      <c r="R96" s="24"/>
+    </row>
+    <row r="97" spans="1:18" ht="15">
+      <c r="A97" s="11">
+        <v>1918</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" s="13"/>
+      <c r="N97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="R97" s="24"/>
+    </row>
+    <row r="98" spans="1:18" ht="15">
+      <c r="A98" s="11">
+        <v>1921</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" s="13"/>
+      <c r="N98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="R98" s="24"/>
+    </row>
+    <row r="99" spans="1:18" ht="30">
+      <c r="A99" s="11">
+        <v>1922</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99" s="26"/>
+      <c r="E99" s="13"/>
+      <c r="N99" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P99" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q99" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="R99" s="24"/>
+    </row>
+    <row r="100" spans="1:18" ht="15">
+      <c r="A100" s="11">
+        <v>1927</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="13"/>
+      <c r="Q100" s="26"/>
+      <c r="R100" s="24"/>
+    </row>
+    <row r="101" spans="1:18" ht="30.75">
+      <c r="A101" s="11">
+        <v>1937</v>
+      </c>
+      <c r="D101" s="26"/>
+      <c r="E101" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E83" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O83" s="14"/>
-    </row>
-    <row r="84" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
-        <v>1914</v>
-      </c>
-      <c r="B84" s="11" t="s">
+      <c r="Q101" s="26"/>
+      <c r="R101" s="24"/>
+    </row>
+    <row r="102" spans="1:18" ht="33">
+      <c r="A102" s="11">
+        <v>1939</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E84" s="13"/>
-      <c r="O84" s="14"/>
-    </row>
-    <row r="85" spans="1:15" ht="66" x14ac:dyDescent="0.2">
-      <c r="A85" s="11">
-        <v>1917</v>
-      </c>
-      <c r="B85" s="3" t="s">
+      <c r="D102" s="26"/>
+      <c r="E102" s="13"/>
+      <c r="Q102" s="26"/>
+      <c r="R102" s="24"/>
+    </row>
+    <row r="103" spans="1:18" ht="15">
+      <c r="A103" s="11">
+        <v>1940</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E85" s="13"/>
-      <c r="O85" s="14"/>
-    </row>
-    <row r="86" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="11">
-        <v>1918</v>
-      </c>
-      <c r="B86" s="11" t="s">
+      <c r="D103" s="26"/>
+      <c r="E103" s="13"/>
+      <c r="Q103" s="26"/>
+      <c r="R103" s="24"/>
+    </row>
+    <row r="104" spans="1:18" ht="30.75">
+      <c r="A104" s="11">
+        <v>1941</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E86" s="13"/>
-      <c r="O86" s="14"/>
-    </row>
-    <row r="87" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="11">
-        <v>1921</v>
-      </c>
-      <c r="D87" s="27" t="s">
+      <c r="D104" s="26"/>
+      <c r="E104" s="13"/>
+      <c r="Q104" s="26"/>
+      <c r="R104" s="24"/>
+    </row>
+    <row r="105" spans="1:18" ht="15">
+      <c r="A105" s="11">
+        <v>1943</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E87" s="13"/>
-      <c r="O87" s="14"/>
-    </row>
-    <row r="88" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A88" s="11">
-        <v>1922</v>
-      </c>
-      <c r="B88" s="11" t="s">
+      <c r="D105" s="26"/>
+      <c r="E105" s="13"/>
+      <c r="Q105" s="26"/>
+      <c r="R105" s="24"/>
+    </row>
+    <row r="106" spans="1:18" ht="30.75">
+      <c r="A106" s="11">
+        <v>1945</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="27"/>
-      <c r="E88" s="13"/>
-      <c r="O88" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="30.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="11">
-        <v>1937</v>
-      </c>
-      <c r="D89" s="27"/>
-      <c r="E89" s="13" t="s">
+      <c r="D106" s="26"/>
+      <c r="E106" s="13" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" ht="33" x14ac:dyDescent="0.2">
-      <c r="A90" s="11">
-        <v>1939</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="Q106" s="26"/>
+      <c r="R106" s="24"/>
+    </row>
+    <row r="107" spans="1:18" ht="58.5" customHeight="1">
+      <c r="A107" s="11">
+        <v>1949</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="27"/>
-      <c r="E90" s="13"/>
-    </row>
-    <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="11">
-        <v>1940</v>
-      </c>
-      <c r="B91" s="11" t="s">
+      <c r="Q107" s="26"/>
+      <c r="R107" s="24"/>
+    </row>
+    <row r="108" spans="1:18" ht="15">
+      <c r="A108" s="11">
+        <v>1966</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="24"/>
+    </row>
+    <row r="109" spans="1:18" ht="74.25">
+      <c r="A109" s="11">
+        <v>1976</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="27"/>
-      <c r="E91" s="13"/>
-    </row>
-    <row r="92" spans="1:15" ht="30.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="11">
-        <v>1941</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D92" s="27"/>
-      <c r="E92" s="13"/>
-    </row>
-    <row r="93" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="11">
-        <v>1943</v>
-      </c>
-      <c r="B93" s="11" t="s">
+      <c r="Q109" s="26"/>
+      <c r="R109" s="24"/>
+    </row>
+    <row r="110" spans="1:18" ht="58.5" customHeight="1">
+      <c r="A110" s="11">
+        <v>1986</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="27"/>
-      <c r="E93" s="13"/>
-    </row>
-    <row r="94" spans="1:15" ht="30.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="11">
-        <v>1945</v>
-      </c>
-      <c r="B94" s="4" t="s">
+      <c r="Q110" s="26"/>
+      <c r="R110" s="24"/>
+    </row>
+    <row r="111" spans="1:18" ht="15">
+      <c r="A111" s="11">
+        <v>1989</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q111" s="26"/>
+      <c r="R111" s="24"/>
+    </row>
+    <row r="112" spans="1:18" ht="30">
+      <c r="A112" s="11">
+        <v>1991</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="27"/>
-      <c r="E94" s="13" t="s">
+      <c r="D112" s="6"/>
+      <c r="Q112" s="26"/>
+      <c r="R112" s="24"/>
+    </row>
+    <row r="113" spans="1:18" ht="28.5">
+      <c r="A113" s="11">
+        <v>2023</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11">
-        <v>1949</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="11">
-        <v>1966</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="74.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="11">
-        <v>1976</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="11">
-        <v>1986</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="11">
-        <v>1989</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A100" s="11">
-        <v>1991</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="11">
-        <v>2023</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q113" s="26"/>
+      <c r="R113" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2589,14 +2914,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="70.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="168.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
